--- a/Erwerbstätige_Schweiz_1960-2020_Infos.xlsx
+++ b/Erwerbstätige_Schweiz_1960-2020_Infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabie\Universität St.Gallen\Software-Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0946DB5-6326-4DF2-9500-AE8EADF296B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F18BE9-45EE-4A1D-AF04-2F98C64F1624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,11 +540,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10323059-F82A-4EB3-9F2E-DD51E46949BC}">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AK21"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="35" max="35" width="11.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
@@ -662,73 +665,91 @@
         <v>2001</v>
       </c>
       <c r="B2" s="6">
-        <v>4088.6935737682315</v>
+        <f>4088.69357376823*1000</f>
+        <v>4088693.5737682302</v>
       </c>
       <c r="C2" s="7">
-        <v>157.15747977434779</v>
+        <f>157.157479774348*1000</f>
+        <v>157157.479774348</v>
       </c>
       <c r="D2" s="7">
-        <v>978.52852867883985</v>
+        <f>978.52852867884*1000</f>
+        <v>978528.52867883991</v>
       </c>
       <c r="E2" s="7">
-        <v>2953.0075653150434</v>
+        <f>2953.00756531504*1000</f>
+        <v>2953007.5653150403</v>
       </c>
       <c r="F2" s="7">
-        <v>3080.8198826766115</v>
+        <f>3080.81988267661*1000</f>
+        <v>3080819.8826766103</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7">
-        <v>1007.87369109162</v>
+        <f>1007.87369109162*1000</f>
+        <v>1007873.69109162</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7">
-        <v>2293.2164607835211</v>
+        <f>2293.21646078352*1000</f>
+        <v>2293216.4607835198</v>
       </c>
       <c r="O2" s="7">
-        <v>101.3204083388066</v>
+        <f>101.320408338807*1000</f>
+        <v>101320.408338807</v>
       </c>
       <c r="P2" s="7">
-        <v>752.73324233454173</v>
+        <f>752.733242334542*1000</f>
+        <v>752733.24233454198</v>
       </c>
       <c r="Q2" s="7">
-        <v>1439.1628101101724</v>
+        <f>1439.16281011017*1000</f>
+        <v>1439162.8101101702</v>
       </c>
       <c r="R2" s="7">
-        <v>1669.4113350279358</v>
+        <f>1669.41133502794*1000</f>
+        <v>1669411.3350279399</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7">
-        <v>623.80512575558544</v>
+        <f>623.805125755585*1000</f>
+        <v>623805.12575558503</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7">
-        <v>1795.4771129847102</v>
+        <f>1795.47711298471*1000</f>
+        <v>1795477.1129847099</v>
       </c>
       <c r="AA2" s="7">
-        <v>55.837071435541176</v>
+        <f>55.8370714355412*1000</f>
+        <v>55837.071435541198</v>
       </c>
       <c r="AB2" s="7">
-        <v>225.79528634429812</v>
+        <f>225.795286344298*1000</f>
+        <v>225795.28634429802</v>
       </c>
       <c r="AC2" s="7">
-        <v>1513.844755204871</v>
+        <f>1513.84475520487*1000</f>
+        <v>1513844.7552048699</v>
       </c>
       <c r="AD2" s="7">
-        <v>1411.4085476486757</v>
+        <f>1411.40854764868*1000</f>
+        <v>1411408.5476486799</v>
       </c>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7">
-        <v>384.06856533603457</v>
+        <f>384.068565336035*1000</f>
+        <v>384068.56533603504</v>
       </c>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
@@ -739,73 +760,91 @@
         <v>2002</v>
       </c>
       <c r="B3" s="6">
-        <v>4117.9089882341686</v>
+        <f>4117.90898823417*1000</f>
+        <v>4117908.9882341698</v>
       </c>
       <c r="C3" s="7">
-        <v>158.07072761627984</v>
+        <f>158.07072761628*1000</f>
+        <v>158070.72761628</v>
       </c>
       <c r="D3" s="7">
-        <v>964.85217383350891</v>
+        <f>964.852173833509*1000</f>
+        <v>964852.17383350898</v>
       </c>
       <c r="E3" s="7">
-        <v>2994.9860867843795</v>
+        <f>2994.98608678438*1000</f>
+        <v>2994986.08678438</v>
       </c>
       <c r="F3" s="7">
-        <v>3103.6773148973125</v>
+        <f>3103.67731489731*1000</f>
+        <v>3103677.3148973105</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7">
-        <v>1014.2316733368558</v>
+        <f>1014.23167333686*1000</f>
+        <v>1014231.67333686</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7">
-        <v>2290.1066867176046</v>
+        <f>2290.1066867176*1000</f>
+        <v>2290106.6867176001</v>
       </c>
       <c r="O3" s="7">
-        <v>102.76300062020971</v>
+        <f>102.76300062021*1000</f>
+        <v>102763.00062020999</v>
       </c>
       <c r="P3" s="7">
-        <v>739.19546938944939</v>
+        <f>739.195469389449*1000</f>
+        <v>739195.46938944899</v>
       </c>
       <c r="Q3" s="7">
-        <v>1448.1482167079453</v>
+        <f>1448.14821670795*1000</f>
+        <v>1448148.21670795</v>
       </c>
       <c r="R3" s="7">
-        <v>1670.2247883651423</v>
+        <f>1670.22478836514*1000</f>
+        <v>1670224.7883651401</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7">
-        <v>619.88189835246226</v>
+        <f>619.881898352462*1000</f>
+        <v>619881.89835246198</v>
       </c>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7">
-        <v>1827.8023015165636</v>
+        <f>1827.80230151656*1000</f>
+        <v>1827802.3015165599</v>
       </c>
       <c r="AA3" s="7">
-        <v>55.307726996070123</v>
+        <f>55.3077269960701*1000</f>
+        <v>55307.726996070101</v>
       </c>
       <c r="AB3" s="7">
-        <v>225.65670444405947</v>
+        <f>225.656704444059*1000</f>
+        <v>225656.704444059</v>
       </c>
       <c r="AC3" s="7">
-        <v>1546.8378700764342</v>
+        <f>1546.83787007643*1000</f>
+        <v>1546837.8700764298</v>
       </c>
       <c r="AD3" s="7">
-        <v>1433.4525265321699</v>
+        <f>1433.45252653217*1000</f>
+        <v>1433452.5265321699</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7">
-        <v>394.34977498439355</v>
+        <f>394.349774984394*1000</f>
+        <v>394349.77498439403</v>
       </c>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -816,73 +855,91 @@
         <v>2003</v>
       </c>
       <c r="B4" s="6">
-        <v>4103.2174591301882</v>
+        <f>4103.21745913019*1000</f>
+        <v>4103217.4591301898</v>
       </c>
       <c r="C4" s="7">
-        <v>155.59318296339245</v>
+        <f>155.593182963392*1000</f>
+        <v>155593.182963392</v>
       </c>
       <c r="D4" s="7">
-        <v>949.86486879003598</v>
+        <f>949.864868790036*1000</f>
+        <v>949864.86879003595</v>
       </c>
       <c r="E4" s="7">
-        <v>2997.7594073767605</v>
+        <f>2997.75940737676*1000</f>
+        <v>2997759.4073767602</v>
       </c>
       <c r="F4" s="7">
-        <v>3093.1974369200907</v>
+        <f>3093.19743692009*1000</f>
+        <v>3093197.4369200896</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7">
-        <v>1010.0200222100977</v>
+        <f>1010.0200222101*1000</f>
+        <v>1010020.0222101</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7">
-        <v>2276.2360072311603</v>
+        <f>2276.23600723116*1000</f>
+        <v>2276236.0072311601</v>
       </c>
       <c r="O4" s="7">
-        <v>102.25670886126564</v>
+        <f>102.256708861266*1000</f>
+        <v>102256.708861266</v>
       </c>
       <c r="P4" s="7">
-        <v>731.68676801181005</v>
+        <f>731.68676801181*1000</f>
+        <v>731686.76801181003</v>
       </c>
       <c r="Q4" s="7">
-        <v>1442.2925303580851</v>
+        <f>1442.29253035809*1000</f>
+        <v>1442292.5303580901</v>
       </c>
       <c r="R4" s="7">
-        <v>1657.6642029888794</v>
+        <f>1657.66420298888*1000</f>
+        <v>1657664.2029888802</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7">
-        <v>618.5718042422809</v>
+        <f>618.571804242281*1000</f>
+        <v>618571.80424228101</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7">
-        <v>1826.9814518990281</v>
+        <f>1826.98145189903*1000</f>
+        <v>1826981.45189903</v>
       </c>
       <c r="AA4" s="7">
-        <v>53.336474102126822</v>
+        <f>53.3364741021268*1000</f>
+        <v>53336.474102126798</v>
       </c>
       <c r="AB4" s="7">
-        <v>218.17810077822591</v>
+        <f>218.178100778226*1000</f>
+        <v>218178.10077822598</v>
       </c>
       <c r="AC4" s="7">
-        <v>1555.4668770186756</v>
+        <f>1555.46687701868*1000</f>
+        <v>1555466.8770186799</v>
       </c>
       <c r="AD4" s="7">
-        <v>1435.5332339312113</v>
+        <f>1435.53323393121*1000</f>
+        <v>1435533.2339312099</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
-        <v>391.4482179678169</v>
+        <f>391.448217967817*1000</f>
+        <v>391448.21796781704</v>
       </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -893,73 +950,91 @@
         <v>2004</v>
       </c>
       <c r="B5" s="6">
-        <v>4114.5643529719291</v>
+        <f>4114.56435297193*1000</f>
+        <v>4114564.3529719301</v>
       </c>
       <c r="C5" s="7">
-        <v>147.93970657510908</v>
+        <f>147.939706575109*1000</f>
+        <v>147939.70657510901</v>
       </c>
       <c r="D5" s="7">
-        <v>945.77601520041321</v>
+        <f>945.776015200413*1000</f>
+        <v>945776.01520041295</v>
       </c>
       <c r="E5" s="7">
-        <v>3020.848631196407</v>
+        <f>3020.84863119641*1000</f>
+        <v>3020848.6311964104</v>
       </c>
       <c r="F5" s="7">
-        <v>3095.4939937319441</v>
+        <f>3095.49399373194*1000</f>
+        <v>3095493.9937319402</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7">
-        <v>1019.0703592399848</v>
+        <f>1019.07035923998*1000</f>
+        <v>1019070.35923998</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7">
-        <v>2282.0595222909196</v>
+        <f>2282.05952229092*1000</f>
+        <v>2282059.5222909199</v>
       </c>
       <c r="O5" s="7">
-        <v>99.133937099552341</v>
+        <f>99.1339370995523*1000</f>
+        <v>99133.937099552291</v>
       </c>
       <c r="P5" s="7">
-        <v>730.11825710759615</v>
+        <f>730.118257107596*1000</f>
+        <v>730118.25710759603</v>
       </c>
       <c r="Q5" s="7">
-        <v>1452.8073280837716</v>
+        <f>1452.80732808377*1000</f>
+        <v>1452807.3280837701</v>
       </c>
       <c r="R5" s="7">
-        <v>1657.4399514112347</v>
+        <f>1657.43995141123*1000</f>
+        <v>1657439.95141123</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7">
-        <v>624.61957087968506</v>
+        <f>624.619570879685*1000</f>
+        <v>624619.57087968511</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7">
-        <v>1832.504830681009</v>
+        <f>1832.50483068101*1000</f>
+        <v>1832504.8306810099</v>
       </c>
       <c r="AA5" s="7">
-        <v>48.805769475556751</v>
+        <f>48.8057694755568*1000</f>
+        <v>48805.769475556801</v>
       </c>
       <c r="AB5" s="7">
-        <v>215.65775809281706</v>
+        <f>215.657758092817*1000</f>
+        <v>215657.75809281701</v>
       </c>
       <c r="AC5" s="7">
-        <v>1568.0413031126352</v>
+        <f>1568.04130311264*1000</f>
+        <v>1568041.30311264</v>
       </c>
       <c r="AD5" s="7">
-        <v>1438.0540423207092</v>
+        <f>1438.05404232071*1000</f>
+        <v>1438054.0423207101</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
-        <v>394.45078836029978</v>
+        <f>394.4507883603*1000</f>
+        <v>394450.78836030001</v>
       </c>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -970,73 +1045,91 @@
         <v>2005</v>
       </c>
       <c r="B6" s="6">
-        <v>4144.6636091727305</v>
+        <f>4144.66360917273*1000</f>
+        <v>4144663.6091727298</v>
       </c>
       <c r="C6" s="7">
-        <v>147.53385906969208</v>
+        <f>147.533859069692*1000</f>
+        <v>147533.859069692</v>
       </c>
       <c r="D6" s="7">
-        <v>952.66347143973132</v>
+        <f>952.663471439731*1000</f>
+        <v>952663.47143973096</v>
       </c>
       <c r="E6" s="7">
-        <v>3044.4662786633075</v>
+        <f>3044.46627866331*1000</f>
+        <v>3044466.2786633098</v>
       </c>
       <c r="F6" s="7">
-        <v>3108.1196055193286</v>
+        <f>3108.11960551933*1000</f>
+        <v>3108119.6055193301</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7">
-        <v>1036.5440036534014</v>
+        <f>1036.5440036534*1000</f>
+        <v>1036544.0036534001</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7">
-        <v>2294.1386583459989</v>
+        <f>2294.138658346*1000</f>
+        <v>2294138.6583459997</v>
       </c>
       <c r="O6" s="7">
-        <v>100.67467708494891</v>
+        <f>100.674677084949*1000</f>
+        <v>100674.677084949</v>
       </c>
       <c r="P6" s="7">
-        <v>731.73198952082419</v>
+        <f>731.731989520824*1000</f>
+        <v>731731.98952082393</v>
       </c>
       <c r="Q6" s="7">
-        <v>1461.731991740226</v>
+        <f>1461.73199174023*1000</f>
+        <v>1461731.9917402298</v>
       </c>
       <c r="R6" s="7">
-        <v>1658.7805696074317</v>
+        <f>1658.78056960743*1000</f>
+        <v>1658780.5696074299</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7">
-        <v>635.35808873856718</v>
+        <f>635.358088738567*1000</f>
+        <v>635358.08873856696</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7">
-        <v>1850.5249508267316</v>
+        <f>1850.52495082673*1000</f>
+        <v>1850524.9508267299</v>
       </c>
       <c r="AA6" s="7">
-        <v>46.859181984743188</v>
+        <f>46.8591819847432*1000</f>
+        <v>46859.181984743205</v>
       </c>
       <c r="AB6" s="7">
-        <v>220.93148191890717</v>
+        <f>220.931481918907*1000</f>
+        <v>220931.481918907</v>
       </c>
       <c r="AC6" s="7">
-        <v>1582.7342869230815</v>
+        <f>1582.73428692308*1000</f>
+        <v>1582734.28692308</v>
       </c>
       <c r="AD6" s="7">
-        <v>1449.3390359118971</v>
+        <f>1449.3390359119*1000</f>
+        <v>1449339.0359119</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
-        <v>401.18591491483437</v>
+        <f>401.185914914834*1000</f>
+        <v>401185.91491483396</v>
       </c>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
@@ -1047,73 +1140,91 @@
         <v>2006</v>
       </c>
       <c r="B7" s="6">
-        <v>4234.9321061172695</v>
+        <f>4234.93210611727*1000</f>
+        <v>4234932.1061172709</v>
       </c>
       <c r="C7" s="7">
-        <v>148.37799779716974</v>
+        <f>148.37799779717*1000</f>
+        <v>148377.99779716998</v>
       </c>
       <c r="D7" s="7">
-        <v>978.97123182099244</v>
+        <f>978.971231820992*1000</f>
+        <v>978971.23182099196</v>
       </c>
       <c r="E7" s="7">
-        <v>3107.5828764991074</v>
+        <f>3107.58287649911*1000</f>
+        <v>3107582.8764991104</v>
       </c>
       <c r="F7" s="7">
-        <v>3160.956712878994</v>
+        <f>3160.95671287899*1000</f>
+        <v>3160956.71287899</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7">
-        <v>1073.9753932382757</v>
+        <f>1073.97539323828*1000</f>
+        <v>1073975.39323828</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
-        <v>2343.6897240452226</v>
+        <f>2343.68972404522*1000</f>
+        <v>2343689.7240452198</v>
       </c>
       <c r="O7" s="7">
-        <v>101.55237212591803</v>
+        <f>101.552372125918*1000</f>
+        <v>101552.372125918</v>
       </c>
       <c r="P7" s="7">
-        <v>750.96009998061959</v>
+        <f>750.96009998062*1000</f>
+        <v>750960.09998062009</v>
       </c>
       <c r="Q7" s="7">
-        <v>1491.177251938685</v>
+        <f>1491.17725193869*1000</f>
+        <v>1491177.25193869</v>
       </c>
       <c r="R7" s="7">
-        <v>1684.3079964462427</v>
+        <f>1684.30799644624*1000</f>
+        <v>1684307.99644624</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7">
-        <v>659.38172759897998</v>
+        <f>659.38172759898*1000</f>
+        <v>659381.72759897995</v>
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7">
-        <v>1891.2423820720469</v>
+        <f>1891.24238207205*1000</f>
+        <v>1891242.3820720501</v>
       </c>
       <c r="AA7" s="7">
-        <v>46.825625671251721</v>
+        <f>46.8256256712517*1000</f>
+        <v>46825.625671251699</v>
       </c>
       <c r="AB7" s="7">
-        <v>228.01113184037285</v>
+        <f>228.011131840373*1000</f>
+        <v>228011.13184037301</v>
       </c>
       <c r="AC7" s="7">
-        <v>1616.4056245604224</v>
+        <f>1616.40562456042*1000</f>
+        <v>1616405.6245604199</v>
       </c>
       <c r="AD7" s="7">
-        <v>1476.6487164327511</v>
+        <f>1476.64871643275*1000</f>
+        <v>1476648.71643275</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7">
-        <v>414.59366563929569</v>
+        <f>414.593665639296*1000</f>
+        <v>414593.665639296</v>
       </c>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
@@ -1124,73 +1235,91 @@
         <v>2007</v>
       </c>
       <c r="B8" s="6">
-        <v>4344.2744162789022</v>
+        <f>4344.2744162789*1000</f>
+        <v>4344274.4162789006</v>
       </c>
       <c r="C8" s="7">
-        <v>154.03360857143193</v>
+        <f>154.033608571432*1000</f>
+        <v>154033.60857143201</v>
       </c>
       <c r="D8" s="7">
-        <v>1007.9071102899125</v>
+        <f>1007.90711028991*1000</f>
+        <v>1007907.11028991</v>
       </c>
       <c r="E8" s="7">
-        <v>3182.3336974175581</v>
+        <f>3182.33369741756*1000</f>
+        <v>3182333.69741756</v>
       </c>
       <c r="F8" s="7">
-        <v>3220.443148983466</v>
+        <f>3220.44314898347*1000</f>
+        <v>3220443.1489834702</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7">
-        <v>1123.8312672954362</v>
+        <f>1123.83126729544*1000</f>
+        <v>1123831.26729544</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7">
-        <v>2407.3363077532599</v>
+        <f>2407.33630775326*1000</f>
+        <v>2407336.3077532598</v>
       </c>
       <c r="O8" s="7">
-        <v>104.72593733407052</v>
+        <f>104.725937334071*1000</f>
+        <v>104725.937334071</v>
       </c>
       <c r="P8" s="7">
-        <v>772.9705158147342</v>
+        <f>772.970515814734*1000</f>
+        <v>772970.51581473392</v>
       </c>
       <c r="Q8" s="7">
-        <v>1529.6398546044554</v>
+        <f>1529.63985460446*1000</f>
+        <v>1529639.8546044601</v>
       </c>
       <c r="R8" s="7">
-        <v>1716.442226053942</v>
+        <f>1716.44222605394*1000</f>
+        <v>1716442.2260539399</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7">
-        <v>690.89408169931789</v>
+        <f>690.894081699318*1000</f>
+        <v>690894.08169931802</v>
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7">
-        <v>1936.9381085256425</v>
+        <f>1936.93810852564*1000</f>
+        <v>1936938.1085256401</v>
       </c>
       <c r="AA8" s="7">
-        <v>49.307671237361404</v>
+        <f>49.3076712373614*1000</f>
+        <v>49307.671237361399</v>
       </c>
       <c r="AB8" s="7">
-        <v>234.93659447517825</v>
+        <f>234.936594475178*1000</f>
+        <v>234936.59447517799</v>
       </c>
       <c r="AC8" s="7">
-        <v>1652.6938428131029</v>
+        <f>1652.6938428131*1000</f>
+        <v>1652693.8428131</v>
       </c>
       <c r="AD8" s="7">
-        <v>1504.0009229295242</v>
+        <f>1504.00092292952*1000</f>
+        <v>1504000.9229295198</v>
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7">
-        <v>432.93718559611824</v>
+        <f>432.937185596118*1000</f>
+        <v>432937.18559611804</v>
       </c>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
@@ -1201,73 +1330,91 @@
         <v>2008</v>
       </c>
       <c r="B9" s="6">
-        <v>4448.2630219087687</v>
+        <f>4448.26302190877*1000</f>
+        <v>4448263.0219087694</v>
       </c>
       <c r="C9" s="7">
-        <v>155.8594178448356</v>
+        <f>155.859417844836*1000</f>
+        <v>155859.41784483599</v>
       </c>
       <c r="D9" s="7">
-        <v>1022.3339351198027</v>
+        <f>1022.3339351198*1000</f>
+        <v>1022333.9351198</v>
       </c>
       <c r="E9" s="7">
-        <v>3270.0696689441306</v>
+        <f>3270.06966894413*1000</f>
+        <v>3270069.6689441302</v>
       </c>
       <c r="F9" s="7">
-        <v>3272.5919988532705</v>
+        <f>3272.59199885327*1000</f>
+        <v>3272591.99885327</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7">
-        <v>1175.6710230554982</v>
+        <f>1175.6710230555*1000</f>
+        <v>1175671.0230554999</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7">
-        <v>2442.8546486303658</v>
+        <f>2442.85464863037*1000</f>
+        <v>2442854.6486303699</v>
       </c>
       <c r="O9" s="7">
-        <v>104.63395152272413</v>
+        <f>104.633951522724*1000</f>
+        <v>104633.951522724</v>
       </c>
       <c r="P9" s="7">
-        <v>780.38474743877873</v>
+        <f>780.384747438779*1000</f>
+        <v>780384.74743877898</v>
       </c>
       <c r="Q9" s="7">
-        <v>1557.8359496688631</v>
+        <f>1557.83594966886*1000</f>
+        <v>1557835.9496688598</v>
       </c>
       <c r="R9" s="7">
-        <v>1726.9215996820465</v>
+        <f>1726.92159968205*1000</f>
+        <v>1726921.5996820501</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7">
-        <v>715.93304894831931</v>
+        <f>715.933048948319*1000</f>
+        <v>715933.04894831893</v>
       </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7">
-        <v>2005.4083732784031</v>
+        <f>2005.4083732784*1000</f>
+        <v>2005408.3732783999</v>
       </c>
       <c r="AA9" s="7">
-        <v>51.225466322111487</v>
+        <f>51.2254663221115*1000</f>
+        <v>51225.466322111504</v>
       </c>
       <c r="AB9" s="7">
-        <v>241.949187681024</v>
+        <f>241.949187681024*1000</f>
+        <v>241949.18768102399</v>
       </c>
       <c r="AC9" s="7">
-        <v>1712.2337192752675</v>
+        <f>1712.23371927527*1000</f>
+        <v>1712233.7192752699</v>
       </c>
       <c r="AD9" s="7">
-        <v>1545.6703991712243</v>
+        <f>1545.67039917122*1000</f>
+        <v>1545670.3991712199</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7">
-        <v>459.73797410717884</v>
+        <f>459.737974107179*1000</f>
+        <v>459737.97410717903</v>
       </c>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
@@ -1278,73 +1425,91 @@
         <v>2009</v>
       </c>
       <c r="B10" s="6">
-        <v>4469.1149849350713</v>
+        <f>4469.11498493507*1000</f>
+        <v>4469114.9849350704</v>
       </c>
       <c r="C10" s="7">
-        <v>148.96991272643919</v>
+        <f>148.969912726439*1000</f>
+        <v>148969.91272643898</v>
       </c>
       <c r="D10" s="7">
-        <v>1011.1511968139223</v>
+        <f>1011.15119681392*1000</f>
+        <v>1011151.19681392</v>
       </c>
       <c r="E10" s="7">
-        <v>3308.9938753947099</v>
+        <f>3308.99387539471*1000</f>
+        <v>3308993.8753947099</v>
       </c>
       <c r="F10" s="7">
-        <v>3265.2363382341755</v>
+        <f>3265.23633823418*1000</f>
+        <v>3265236.3382341801</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7">
-        <v>1203.8786467008963</v>
+        <f>1203.8786467009*1000</f>
+        <v>1203878.6467009</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
-        <v>2441.5781594589503</v>
+        <f>2441.57815945895*1000</f>
+        <v>2441578.1594589497</v>
       </c>
       <c r="O10" s="7">
-        <v>99.604653029495125</v>
+        <f>99.6046530294951*1000</f>
+        <v>99604.653029495094</v>
       </c>
       <c r="P10" s="7">
-        <v>774.60827751672173</v>
+        <f>774.608277516722*1000</f>
+        <v>774608.27751672198</v>
       </c>
       <c r="Q10" s="7">
-        <v>1567.3652289127333</v>
+        <f>1567.36522891273*1000</f>
+        <v>1567365.22891273</v>
       </c>
       <c r="R10" s="7">
-        <v>1710.4636813205593</v>
+        <f>1710.46368132056*1000</f>
+        <v>1710463.6813205599</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7">
-        <v>731.11447813839084</v>
+        <f>731.114478138391*1000</f>
+        <v>731114.47813839093</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7">
-        <v>2027.5368254761215</v>
+        <f>2027.53682547612*1000</f>
+        <v>2027536.82547612</v>
       </c>
       <c r="AA10" s="7">
-        <v>49.365259696944065</v>
+        <f>49.3652596969441*1000</f>
+        <v>49365.2596969441</v>
       </c>
       <c r="AB10" s="7">
-        <v>236.54291929720054</v>
+        <f>236.542919297201*1000</f>
+        <v>236542.91929720101</v>
       </c>
       <c r="AC10" s="7">
-        <v>1741.6286464819768</v>
+        <f>1741.62864648198*1000</f>
+        <v>1741628.6464819801</v>
       </c>
       <c r="AD10" s="7">
-        <v>1554.7726569136162</v>
+        <f>1554.77265691362*1000</f>
+        <v>1554772.65691362</v>
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7">
-        <v>472.7641685625054</v>
+        <f>472.764168562505*1000</f>
+        <v>472764.16856250499</v>
       </c>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
@@ -1355,112 +1520,148 @@
         <v>2010</v>
       </c>
       <c r="B11" s="6">
-        <v>4481.7117499798005</v>
+        <f>4481.7117499798*1000</f>
+        <v>4481711.7499797996</v>
       </c>
       <c r="C11" s="7">
-        <v>155.51724999980001</v>
+        <f>155.5172499998*1000</f>
+        <v>155517.2499998</v>
       </c>
       <c r="D11" s="7">
-        <v>1006.6399999975</v>
+        <f>1006.6399999975*1000</f>
+        <v>1006639.9999975</v>
       </c>
       <c r="E11" s="7">
-        <v>3319.5544999825001</v>
+        <f>3319.5544999825*1000</f>
+        <v>3319554.4999825</v>
       </c>
       <c r="F11" s="7">
-        <v>3267.2464999767499</v>
+        <f>3267.24649997675*1000</f>
+        <v>3267246.49997675</v>
       </c>
       <c r="G11" s="7">
-        <v>137.80695041174999</v>
+        <f>137.80695041175*1000</f>
+        <v>137806.95041175</v>
       </c>
       <c r="H11" s="7">
-        <v>645.39208451500008</v>
+        <f>645.392084515*1000</f>
+        <v>645392.084515</v>
       </c>
       <c r="I11" s="7">
-        <v>2484.04746505</v>
+        <f>2484.04746505*1000</f>
+        <v>2484047.4650500002</v>
       </c>
       <c r="J11" s="7">
-        <v>1214.4652500030497</v>
+        <f>1214.46525000305*1000</f>
+        <v>1214465.2500030498</v>
       </c>
       <c r="K11" s="7">
-        <v>17.710299588049999</v>
+        <f>17.71029958805*1000</f>
+        <v>17710.299588049998</v>
       </c>
       <c r="L11" s="7">
-        <v>361.24791548249999</v>
+        <f>361.2479154825*1000</f>
+        <v>361247.91548249999</v>
       </c>
       <c r="M11" s="7">
-        <v>835.50703493249989</v>
+        <f>835.5070349325*1000</f>
+        <v>835507.03493249998</v>
       </c>
       <c r="N11" s="7">
-        <v>2468.1042499823748</v>
+        <f>2468.10424998237*1000</f>
+        <v>2468104.2499823701</v>
       </c>
       <c r="O11" s="7">
-        <v>102.63624999987501</v>
+        <f>102.636249999875*1000</f>
+        <v>102636.249999875</v>
       </c>
       <c r="P11" s="7">
-        <v>775.47800000000007</v>
+        <f>775.478*1000</f>
+        <v>775478</v>
       </c>
       <c r="Q11" s="7">
-        <v>1589.9899999825</v>
+        <f>1589.9899999825*1000</f>
+        <v>1589989.9999825</v>
       </c>
       <c r="R11" s="7">
-        <v>1726.3894999797499</v>
+        <f>1726.38949997975*1000</f>
+        <v>1726389.49997975</v>
       </c>
       <c r="S11" s="7">
-        <v>90.827631972250003</v>
+        <f>90.82763197225*1000</f>
+        <v>90827.631972250005</v>
       </c>
       <c r="T11" s="7">
-        <v>491.17185933250005</v>
+        <f>491.1718593325*1000</f>
+        <v>491171.85933249997</v>
       </c>
       <c r="U11" s="7">
-        <v>1144.390008675</v>
+        <f>1144.390008675*1000</f>
+        <v>1144390.0086749999</v>
       </c>
       <c r="V11" s="7">
-        <v>741.71475000262501</v>
+        <f>741.714750002625*1000</f>
+        <v>741714.75000262505</v>
       </c>
       <c r="W11" s="5">
-        <v>11.808618027625</v>
+        <f>11.808618027625*1000</f>
+        <v>11808.618027625</v>
       </c>
       <c r="X11" s="7">
-        <v>284.30614066750002</v>
+        <f>284.3061406675*1000</f>
+        <v>284306.14066750003</v>
       </c>
       <c r="Y11" s="7">
-        <v>445.59999130749998</v>
+        <f>445.5999913075*1000</f>
+        <v>445599.99130749999</v>
       </c>
       <c r="Z11" s="7">
-        <v>2013.6074999974248</v>
+        <f>2013.60749999742*1000</f>
+        <v>2013607.49999742</v>
       </c>
       <c r="AA11" s="7">
-        <v>52.880999999925002</v>
+        <f>52.880999999925*1000</f>
+        <v>52880.999999924999</v>
       </c>
       <c r="AB11" s="7">
-        <v>231.1619999975</v>
+        <f>231.1619999975*1000</f>
+        <v>231161.99999750001</v>
       </c>
       <c r="AC11" s="7">
-        <v>1729.5645</v>
+        <f>1729.5645*1000</f>
+        <v>1729564.5</v>
       </c>
       <c r="AD11" s="7">
-        <v>1540.856999997</v>
+        <f>1540.856999997*1000</f>
+        <v>1540856.999997</v>
       </c>
       <c r="AE11" s="7">
-        <v>46.979318439499998</v>
+        <f>46.9793184395*1000</f>
+        <v>46979.318439499999</v>
       </c>
       <c r="AF11" s="7">
-        <v>154.2202251825</v>
+        <f>154.2202251825*1000</f>
+        <v>154220.2251825</v>
       </c>
       <c r="AG11" s="7">
-        <v>1339.657456375</v>
+        <f>1339.657456375*1000</f>
+        <v>1339657.4563750001</v>
       </c>
       <c r="AH11" s="7">
-        <v>472.75050000042501</v>
+        <f>472.750500000425*1000</f>
+        <v>472750.50000042503</v>
       </c>
       <c r="AI11" s="5">
-        <v>5.9016815604250006</v>
+        <f>5.901681560425*1000</f>
+        <v>5901.6815604249996</v>
       </c>
       <c r="AJ11" s="7">
-        <v>76.941774815000002</v>
+        <f>76.941774815*1000</f>
+        <v>76941.774814999997</v>
       </c>
       <c r="AK11" s="8">
-        <v>389.90704362500003</v>
+        <f>389.907043625*1000</f>
+        <v>389907.04362499999</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -1468,112 +1669,148 @@
         <v>2011</v>
       </c>
       <c r="B12" s="6">
-        <v>4597.5814999848244</v>
+        <f>4597.58149998482*1000</f>
+        <v>4597581.4999848194</v>
       </c>
       <c r="C12" s="7">
-        <v>160.52975000007501</v>
+        <f>160.529750000075*1000</f>
+        <v>160529.750000075</v>
       </c>
       <c r="D12" s="7">
-        <v>1030.9352500022499</v>
+        <f>1030.93525000225*1000</f>
+        <v>1030935.2500022501</v>
       </c>
       <c r="E12" s="7">
-        <v>3406.1164999825005</v>
+        <f>3406.1164999825*1000</f>
+        <v>3406116.4999825</v>
       </c>
       <c r="F12" s="7">
-        <v>3308.1252499852499</v>
+        <f>3308.12524998525*1000</f>
+        <v>3308125.2499852497</v>
       </c>
       <c r="G12" s="7">
-        <v>141.23039817275</v>
+        <f>141.23039817275*1000</f>
+        <v>141230.39817274999</v>
       </c>
       <c r="H12" s="7">
-        <v>647.62658661249998</v>
+        <f>647.6265866125*1000</f>
+        <v>647626.58661250002</v>
       </c>
       <c r="I12" s="7">
-        <v>2519.2682652000003</v>
+        <f>2519.2682652*1000</f>
+        <v>2519268.2651999998</v>
       </c>
       <c r="J12" s="7">
-        <v>1289.456249999575</v>
+        <f>1289.45624999957*1000</f>
+        <v>1289456.24999957</v>
       </c>
       <c r="K12" s="7">
-        <v>19.299351827325001</v>
+        <f>19.299351827325*1000</f>
+        <v>19299.351827325001</v>
       </c>
       <c r="L12" s="7">
-        <v>383.30866338975</v>
+        <f>383.30866338975*1000</f>
+        <v>383308.66338975</v>
       </c>
       <c r="M12" s="7">
-        <v>886.84823478250007</v>
+        <f>886.8482347825*1000</f>
+        <v>886848.23478249996</v>
       </c>
       <c r="N12" s="7">
-        <v>2531.5062499975002</v>
+        <f>2531.5062499975*1000</f>
+        <v>2531506.2499975003</v>
       </c>
       <c r="O12" s="7">
-        <v>103.068</v>
+        <f>103.068*1000</f>
+        <v>103068</v>
       </c>
       <c r="P12" s="7">
-        <v>791.70925</v>
+        <f>791.70925*1000</f>
+        <v>791709.25</v>
       </c>
       <c r="Q12" s="7">
-        <v>1636.7289999975001</v>
+        <f>1636.7289999975*1000</f>
+        <v>1636728.9999975001</v>
       </c>
       <c r="R12" s="7">
-        <v>1746.172999997</v>
+        <f>1746.172999997*1000</f>
+        <v>1746172.999997</v>
       </c>
       <c r="S12" s="7">
-        <v>90.177721302000009</v>
+        <f>90.177721302*1000</f>
+        <v>90177.721301999991</v>
       </c>
       <c r="T12" s="7">
-        <v>490.73431122000005</v>
+        <f>490.73431122*1000</f>
+        <v>490734.31121999997</v>
       </c>
       <c r="U12" s="7">
-        <v>1165.2609674749999</v>
+        <f>1165.260967475*1000</f>
+        <v>1165260.9674749998</v>
       </c>
       <c r="V12" s="7">
-        <v>785.33325000050002</v>
+        <f>785.3332500005*1000</f>
+        <v>785333.2500005</v>
       </c>
       <c r="W12" s="5">
-        <v>12.890278697999999</v>
+        <f>12.890278698*1000</f>
+        <v>12890.278698</v>
       </c>
       <c r="X12" s="7">
-        <v>300.97493878</v>
+        <f>300.97493878*1000</f>
+        <v>300974.93878000003</v>
       </c>
       <c r="Y12" s="7">
-        <v>471.46803252249998</v>
+        <f>471.4680325225*1000</f>
+        <v>471468.03252249997</v>
       </c>
       <c r="Z12" s="7">
-        <v>2066.0752499873247</v>
+        <f>2066.07524998732*1000</f>
+        <v>2066075.24998732</v>
       </c>
       <c r="AA12" s="7">
-        <v>57.461750000075</v>
+        <f>57.461750000075*1000</f>
+        <v>57461.750000075001</v>
       </c>
       <c r="AB12" s="7">
-        <v>239.22600000225</v>
+        <f>239.22600000225*1000</f>
+        <v>239226.00000225002</v>
       </c>
       <c r="AC12" s="7">
-        <v>1769.387499985</v>
+        <f>1769.387499985*1000</f>
+        <v>1769387.4999849999</v>
       </c>
       <c r="AD12" s="7">
-        <v>1561.9522499882498</v>
+        <f>1561.95224998825*1000</f>
+        <v>1561952.24998825</v>
       </c>
       <c r="AE12" s="7">
-        <v>51.052676870749998</v>
+        <f>51.05267687075*1000</f>
+        <v>51052.676870750001</v>
       </c>
       <c r="AF12" s="7">
-        <v>156.89227539250001</v>
+        <f>156.8922753925*1000</f>
+        <v>156892.27539250001</v>
       </c>
       <c r="AG12" s="7">
-        <v>1354.0072977249999</v>
+        <f>1354.007297725*1000</f>
+        <v>1354007.297725</v>
       </c>
       <c r="AH12" s="7">
-        <v>504.12299999907498</v>
+        <f>504.122999999075*1000</f>
+        <v>504122.99999907496</v>
       </c>
       <c r="AI12" s="5">
-        <v>6.4090731293249998</v>
+        <f>6.409073129325*1000</f>
+        <v>6409.0731293250001</v>
       </c>
       <c r="AJ12" s="7">
-        <v>82.333724609749993</v>
+        <f>82.33372460975*1000</f>
+        <v>82333.724609750003</v>
       </c>
       <c r="AK12" s="8">
-        <v>415.38020226000003</v>
+        <f>415.38020226*1000</f>
+        <v>415380.20225999999</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -1581,112 +1818,148 @@
         <v>2012</v>
       </c>
       <c r="B13" s="6">
-        <v>4679.4677504325246</v>
+        <f>4679.46775043252*1000</f>
+        <v>4679467.7504325202</v>
       </c>
       <c r="C13" s="7">
-        <v>162.13675000002502</v>
+        <f>162.136750000025*1000</f>
+        <v>162136.750000025</v>
       </c>
       <c r="D13" s="7">
-        <v>1038.0167503774999</v>
+        <f>1038.0167503775*1000</f>
+        <v>1038016.7503775001</v>
       </c>
       <c r="E13" s="7">
-        <v>3479.3142500549998</v>
+        <f>3479.314250055*1000</f>
+        <v>3479314.2500549997</v>
       </c>
       <c r="F13" s="7">
-        <v>3329.3650002704999</v>
+        <f>3329.3650002705*1000</f>
+        <v>3329365.0002704998</v>
       </c>
       <c r="G13" s="7">
-        <v>142.39207512550001</v>
+        <f>142.3920751255*1000</f>
+        <v>142392.07512550001</v>
       </c>
       <c r="H13" s="7">
-        <v>647.90224934499997</v>
+        <f>647.902249345*1000</f>
+        <v>647902.24934500002</v>
       </c>
       <c r="I13" s="7">
-        <v>2539.0706758000006</v>
+        <f>2539.0706758*1000</f>
+        <v>2539070.6758000003</v>
       </c>
       <c r="J13" s="7">
-        <v>1350.1027501620249</v>
+        <f>1350.10275016202*1000</f>
+        <v>1350102.7501620199</v>
       </c>
       <c r="K13" s="7">
-        <v>19.744674874525003</v>
+        <f>19.744674874525*1000</f>
+        <v>19744.674874525001</v>
       </c>
       <c r="L13" s="7">
-        <v>390.11450103250002</v>
+        <f>390.1145010325*1000</f>
+        <v>390114.5010325</v>
       </c>
       <c r="M13" s="7">
-        <v>940.243574255</v>
+        <f>940.243574255*1000</f>
+        <v>940243.57425499998</v>
       </c>
       <c r="N13" s="7">
-        <v>2569.7667504350002</v>
+        <f>2569.766750435*1000</f>
+        <v>2569766.7504350003</v>
       </c>
       <c r="O13" s="7">
-        <v>101.441</v>
+        <f>101.441*1000</f>
+        <v>101441</v>
       </c>
       <c r="P13" s="7">
-        <v>796.77350037750011</v>
+        <f>796.7735003775*1000</f>
+        <v>796773.50037749996</v>
       </c>
       <c r="Q13" s="7">
-        <v>1671.5522500575</v>
+        <f>1671.5522500575*1000</f>
+        <v>1671552.2500575001</v>
       </c>
       <c r="R13" s="7">
-        <v>1755.176000274</v>
+        <f>1755.176000274*1000</f>
+        <v>1755176.000274</v>
       </c>
       <c r="S13" s="7">
-        <v>88.328131866499987</v>
+        <f>88.3281318665*1000</f>
+        <v>88328.1318665</v>
       </c>
       <c r="T13" s="7">
-        <v>490.34400980750002</v>
+        <f>490.3440098075*1000</f>
+        <v>490344.0098075</v>
       </c>
       <c r="U13" s="7">
-        <v>1176.5038586000001</v>
+        <f>1176.5038586*1000</f>
+        <v>1176503.8586000002</v>
       </c>
       <c r="V13" s="7">
-        <v>814.59075016099996</v>
+        <f>814.590750161*1000</f>
+        <v>814590.75016099995</v>
       </c>
       <c r="W13" s="5">
-        <v>13.112868133499999</v>
+        <f>13.1128681335*1000</f>
+        <v>13112.8681335</v>
       </c>
       <c r="X13" s="7">
-        <v>306.42949056999998</v>
+        <f>306.42949057*1000</f>
+        <v>306429.49056999997</v>
       </c>
       <c r="Y13" s="7">
-        <v>495.04839145749997</v>
+        <f>495.0483914575*1000</f>
+        <v>495048.39145749999</v>
       </c>
       <c r="Z13" s="7">
-        <v>2109.7009999975253</v>
+        <f>2109.70099999753*1000</f>
+        <v>2109700.9999975297</v>
       </c>
       <c r="AA13" s="7">
-        <v>60.695750000025001</v>
+        <f>60.695750000025*1000</f>
+        <v>60695.750000025</v>
       </c>
       <c r="AB13" s="7">
-        <v>241.24325000000002</v>
+        <f>241.24325*1000</f>
+        <v>241243.25</v>
       </c>
       <c r="AC13" s="7">
-        <v>1807.7619999975</v>
+        <f>1807.7619999975*1000</f>
+        <v>1807761.9999974999</v>
       </c>
       <c r="AD13" s="7">
-        <v>1574.1889999964999</v>
+        <f>1574.1889999965*1000</f>
+        <v>1574188.9999964999</v>
       </c>
       <c r="AE13" s="7">
-        <v>54.063943258999998</v>
+        <f>54.063943259*1000</f>
+        <v>54063.943259</v>
       </c>
       <c r="AF13" s="7">
-        <v>157.55823953750001</v>
+        <f>157.5582395375*1000</f>
+        <v>157558.23953749999</v>
       </c>
       <c r="AG13" s="7">
-        <v>1362.5668172000001</v>
+        <f>1362.5668172*1000</f>
+        <v>1362566.8172000002</v>
       </c>
       <c r="AH13" s="7">
-        <v>535.51200000102494</v>
+        <f>535.512000001025*1000</f>
+        <v>535512.00000102492</v>
       </c>
       <c r="AI13" s="5">
-        <v>6.6318067410250006</v>
+        <f>6.631806741025*1000</f>
+        <v>6631.8067410249996</v>
       </c>
       <c r="AJ13" s="7">
-        <v>83.685010462500003</v>
+        <f>83.6850104625*1000</f>
+        <v>83685.010462500009</v>
       </c>
       <c r="AK13" s="8">
-        <v>445.19518279750002</v>
+        <f>445.1951827975*1000</f>
+        <v>445195.18279750005</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -1694,112 +1967,148 @@
         <v>2013</v>
       </c>
       <c r="B14" s="6">
-        <v>4736.0497500105994</v>
+        <f>4736.0497500106*1000</f>
+        <v>4736049.7500106003</v>
       </c>
       <c r="C14" s="7">
-        <v>164.30875000085001</v>
+        <f>164.30875000085*1000</f>
+        <v>164308.75000085001</v>
       </c>
       <c r="D14" s="7">
-        <v>1031.5850000472501</v>
+        <f>1031.58500004725*1000</f>
+        <v>1031585.0000472501</v>
       </c>
       <c r="E14" s="7">
-        <v>3540.1559999624997</v>
+        <f>3540.1559999625*1000</f>
+        <v>3540155.9999625003</v>
       </c>
       <c r="F14" s="7">
-        <v>3341.9102499922496</v>
+        <f>3341.91024999225*1000</f>
+        <v>3341910.24999225</v>
       </c>
       <c r="G14" s="7">
-        <v>142.72534871475</v>
+        <f>142.72534871475*1000</f>
+        <v>142725.34871475</v>
       </c>
       <c r="H14" s="7">
-        <v>639.43896535249996</v>
+        <f>639.4389653525*1000</f>
+        <v>639438.96535249997</v>
       </c>
       <c r="I14" s="7">
-        <v>2559.7459359249997</v>
+        <f>2559.745935925*1000</f>
+        <v>2559745.9359250003</v>
       </c>
       <c r="J14" s="7">
-        <v>1394.1395000183502</v>
+        <f>1394.13950001835*1000</f>
+        <v>1394139.5000183498</v>
       </c>
       <c r="K14" s="7">
-        <v>21.583401286099999</v>
+        <f>21.5834012861*1000</f>
+        <v>21583.401286099997</v>
       </c>
       <c r="L14" s="7">
-        <v>392.14603469475003</v>
+        <f>392.14603469475*1000</f>
+        <v>392146.03469475004</v>
       </c>
       <c r="M14" s="7">
-        <v>980.41006403750009</v>
+        <f>980.4100640375*1000</f>
+        <v>980410.06403749995</v>
       </c>
       <c r="N14" s="7">
-        <v>2593.3199999859999</v>
+        <f>2593.319999986*1000</f>
+        <v>2593319.9999859999</v>
       </c>
       <c r="O14" s="7">
-        <v>106.45225000100001</v>
+        <f>106.452250001*1000</f>
+        <v>106452.25000099999</v>
       </c>
       <c r="P14" s="7">
-        <v>791.15525000000002</v>
+        <f>791.15525*1000</f>
+        <v>791155.25</v>
       </c>
       <c r="Q14" s="7">
-        <v>1695.7124999849998</v>
+        <f>1695.712499985*1000</f>
+        <v>1695712.4999850001</v>
       </c>
       <c r="R14" s="7">
-        <v>1751.8632499857499</v>
+        <f>1751.86324998575*1000</f>
+        <v>1751863.2499857498</v>
       </c>
       <c r="S14" s="7">
-        <v>91.316281230750008</v>
+        <f>91.31628123075*1000</f>
+        <v>91316.281230749999</v>
       </c>
       <c r="T14" s="7">
-        <v>482.28210158000002</v>
+        <f>482.28210158*1000</f>
+        <v>482282.10158000002</v>
       </c>
       <c r="U14" s="7">
-        <v>1178.2648671749998</v>
+        <f>1178.264867175*1000</f>
+        <v>1178264.867175</v>
       </c>
       <c r="V14" s="7">
-        <v>841.45675000024994</v>
+        <f>841.45675000025*1000</f>
+        <v>841456.75000025006</v>
       </c>
       <c r="W14" s="5">
-        <v>15.135968770249999</v>
+        <f>15.13596877025*1000</f>
+        <v>15135.968770250001</v>
       </c>
       <c r="X14" s="7">
-        <v>308.87314842000001</v>
+        <f>308.87314842*1000</f>
+        <v>308873.14841999998</v>
       </c>
       <c r="Y14" s="7">
-        <v>517.44763280999996</v>
+        <f>517.44763281*1000</f>
+        <v>517447.63280999998</v>
       </c>
       <c r="Z14" s="7">
-        <v>2142.7297500246</v>
+        <f>2142.7297500246*1000</f>
+        <v>2142729.7500246</v>
       </c>
       <c r="AA14" s="7">
-        <v>57.856499999850001</v>
+        <f>57.85649999985*1000</f>
+        <v>57856.499999849999</v>
       </c>
       <c r="AB14" s="7">
-        <v>240.42975004724997</v>
+        <f>240.42975004725*1000</f>
+        <v>240429.75004725001</v>
       </c>
       <c r="AC14" s="7">
-        <v>1844.4434999775001</v>
+        <f>1844.4434999775*1000</f>
+        <v>1844443.4999775002</v>
       </c>
       <c r="AD14" s="7">
-        <v>1590.0470000064997</v>
+        <f>1590.0470000065*1000</f>
+        <v>1590047.0000064999</v>
       </c>
       <c r="AE14" s="7">
-        <v>51.409067484000005</v>
+        <f>51.409067484*1000</f>
+        <v>51409.067483999999</v>
       </c>
       <c r="AF14" s="7">
-        <v>157.1568637725</v>
+        <f>157.1568637725*1000</f>
+        <v>157156.86377250002</v>
       </c>
       <c r="AG14" s="7">
-        <v>1381.4810687499998</v>
+        <f>1381.48106875*1000</f>
+        <v>1381481.0687500001</v>
       </c>
       <c r="AH14" s="7">
-        <v>552.68275001810002</v>
+        <f>552.6827500181*1000</f>
+        <v>552682.75001810002</v>
       </c>
       <c r="AI14" s="5">
-        <v>6.4474325158500001</v>
+        <f>6.44743251585*1000</f>
+        <v>6447.4325158500005</v>
       </c>
       <c r="AJ14" s="7">
-        <v>83.272886274749993</v>
+        <f>83.27288627475*1000</f>
+        <v>83272.886274749995</v>
       </c>
       <c r="AK14" s="8">
-        <v>462.96243122750002</v>
+        <f>462.9624312275*1000</f>
+        <v>462962.43122750003</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -1807,112 +2116,148 @@
         <v>2014</v>
       </c>
       <c r="B15" s="6">
-        <v>4825.2497499948249</v>
+        <f>4825.24974999482*1000</f>
+        <v>4825249.74999482</v>
       </c>
       <c r="C15" s="7">
-        <v>169.93075000007502</v>
+        <f>169.930750000075*1000</f>
+        <v>169930.750000075</v>
       </c>
       <c r="D15" s="7">
-        <v>1045.0662499997497</v>
+        <f>1045.06624999975*1000</f>
+        <v>1045066.2499997499</v>
       </c>
       <c r="E15" s="7">
-        <v>3610.2527499949997</v>
+        <f>3610.252749995*1000</f>
+        <v>3610252.7499950002</v>
       </c>
       <c r="F15" s="7">
-        <v>3373.2602499964996</v>
+        <f>3373.2602499965*1000</f>
+        <v>3373260.2499965001</v>
       </c>
       <c r="G15" s="7">
-        <v>146.89741512150002</v>
+        <f>146.8974151215*1000</f>
+        <v>146897.4151215</v>
       </c>
       <c r="H15" s="7">
-        <v>643.68814267499999</v>
+        <f>643.688142675*1000</f>
+        <v>643688.14267500001</v>
       </c>
       <c r="I15" s="7">
-        <v>2582.6746922000002</v>
+        <f>2582.6746922*1000</f>
+        <v>2582674.6922000004</v>
       </c>
       <c r="J15" s="7">
-        <v>1451.9894999983248</v>
+        <f>1451.98949999832*1000</f>
+        <v>1451989.4999983201</v>
       </c>
       <c r="K15" s="7">
-        <v>23.033334878574998</v>
+        <f>23.033334878575*1000</f>
+        <v>23033.334878575002</v>
       </c>
       <c r="L15" s="7">
-        <v>401.37810732474998</v>
+        <f>401.37810732475*1000</f>
+        <v>401378.10732474999</v>
       </c>
       <c r="M15" s="7">
-        <v>1027.5780577949999</v>
+        <f>1027.578057795*1000</f>
+        <v>1027578.0577949999</v>
       </c>
       <c r="N15" s="7">
-        <v>2631.5469999974998</v>
+        <f>2631.5469999975*1000</f>
+        <v>2631546.9999974999</v>
       </c>
       <c r="O15" s="7">
-        <v>111.58124999999998</v>
+        <f>111.58125*1000</f>
+        <v>111581.25</v>
       </c>
       <c r="P15" s="7">
-        <v>799.13824999999997</v>
+        <f>799.13825*1000</f>
+        <v>799138.25</v>
       </c>
       <c r="Q15" s="7">
-        <v>1720.8274999974999</v>
+        <f>1720.8274999975*1000</f>
+        <v>1720827.4999974999</v>
       </c>
       <c r="R15" s="7">
-        <v>1755.0352499994999</v>
+        <f>1755.0352499995*1000</f>
+        <v>1755035.2499994999</v>
       </c>
       <c r="S15" s="7">
-        <v>96.025254374500008</v>
+        <f>96.0252543745*1000</f>
+        <v>96025.2543745</v>
       </c>
       <c r="T15" s="7">
-        <v>484.79261480000002</v>
+        <f>484.7926148*1000</f>
+        <v>484792.61480000004</v>
       </c>
       <c r="U15" s="7">
-        <v>1174.217380825</v>
+        <f>1174.217380825*1000</f>
+        <v>1174217.3808249999</v>
       </c>
       <c r="V15" s="7">
-        <v>876.51174999799991</v>
+        <f>876.511749998*1000</f>
+        <v>876511.74999799998</v>
       </c>
       <c r="W15" s="5">
-        <v>15.555995625500001</v>
+        <f>15.5559956255*1000</f>
+        <v>15555.9956255</v>
       </c>
       <c r="X15" s="7">
-        <v>314.34563519999995</v>
+        <f>314.3456352*1000</f>
+        <v>314345.63520000002</v>
       </c>
       <c r="Y15" s="7">
-        <v>546.61011917249994</v>
+        <f>546.6101191725*1000</f>
+        <v>546610.1191725001</v>
       </c>
       <c r="Z15" s="7">
-        <v>2193.7027499973246</v>
+        <f>2193.70274999732*1000</f>
+        <v>2193702.7499973201</v>
       </c>
       <c r="AA15" s="7">
-        <v>58.349500000075004</v>
+        <f>58.349500000075*1000</f>
+        <v>58349.500000074993</v>
       </c>
       <c r="AB15" s="7">
-        <v>245.92799999975</v>
+        <f>245.92799999975*1000</f>
+        <v>245927.99999975</v>
       </c>
       <c r="AC15" s="7">
-        <v>1889.4252499975</v>
+        <f>1889.4252499975*1000</f>
+        <v>1889425.2499975001</v>
       </c>
       <c r="AD15" s="7">
-        <v>1618.2249999969999</v>
+        <f>1618.224999997*1000</f>
+        <v>1618224.999997</v>
       </c>
       <c r="AE15" s="7">
-        <v>50.872160747000002</v>
+        <f>50.872160747*1000</f>
+        <v>50872.160747000002</v>
       </c>
       <c r="AF15" s="7">
-        <v>158.895527875</v>
+        <f>158.895527875*1000</f>
+        <v>158895.527875</v>
       </c>
       <c r="AG15" s="7">
-        <v>1408.4573113749998</v>
+        <f>1408.457311375*1000</f>
+        <v>1408457.311375</v>
       </c>
       <c r="AH15" s="7">
-        <v>575.47775000032505</v>
+        <f>575.477750000325*1000</f>
+        <v>575477.75000032503</v>
       </c>
       <c r="AI15" s="5">
-        <v>7.4773392530749998</v>
+        <f>7.477339253075*1000</f>
+        <v>7477.3392530749998</v>
       </c>
       <c r="AJ15" s="7">
-        <v>87.032472124749987</v>
+        <f>87.03247212475*1000</f>
+        <v>87032.472124749998</v>
       </c>
       <c r="AK15" s="8">
-        <v>480.96793862250001</v>
+        <f>480.9679386225*1000</f>
+        <v>480967.93862249999</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -1920,112 +2265,148 @@
         <v>2015</v>
       </c>
       <c r="B16" s="6">
-        <v>4899.1555002837995</v>
+        <f>4899.1555002838*1000</f>
+        <v>4899155.5002838001</v>
       </c>
       <c r="C16" s="7">
-        <v>165.89825000004998</v>
+        <f>165.89825000005*1000</f>
+        <v>165898.25000005</v>
       </c>
       <c r="D16" s="7">
-        <v>1051.5967502712501</v>
+        <f>1051.59675027125*1000</f>
+        <v>1051596.7502712498</v>
       </c>
       <c r="E16" s="7">
-        <v>3681.6605000125001</v>
+        <f>3681.6605000125*1000</f>
+        <v>3681660.5000125002</v>
       </c>
       <c r="F16" s="7">
-        <v>3404.3592501849998</v>
+        <f>3404.359250185*1000</f>
+        <v>3404359.2501849998</v>
       </c>
       <c r="G16" s="7">
-        <v>144.4621315775</v>
+        <f>144.4621315775*1000</f>
+        <v>144462.1315775</v>
       </c>
       <c r="H16" s="7">
-        <v>646.18199790749998</v>
+        <f>646.1819979075*1000</f>
+        <v>646181.99790750002</v>
       </c>
       <c r="I16" s="7">
-        <v>2613.7151206999997</v>
+        <f>2613.7151207*1000</f>
+        <v>2613715.1207000003</v>
       </c>
       <c r="J16" s="7">
-        <v>1494.7962500987999</v>
+        <f>1494.7962500988*1000</f>
+        <v>1494796.2500988001</v>
       </c>
       <c r="K16" s="7">
-        <v>21.436118422549995</v>
+        <f>21.43611842255*1000</f>
+        <v>21436.11842255</v>
       </c>
       <c r="L16" s="7">
-        <v>405.41475236374998</v>
+        <f>405.41475236375*1000</f>
+        <v>405414.75236374995</v>
       </c>
       <c r="M16" s="7">
-        <v>1067.9453793124999</v>
+        <f>1067.9453793125*1000</f>
+        <v>1067945.3793125001</v>
       </c>
       <c r="N16" s="7">
-        <v>2666.4387500550752</v>
+        <f>2666.43875005508*1000</f>
+        <v>2666438.7500550803</v>
       </c>
       <c r="O16" s="7">
-        <v>103.23950000007501</v>
+        <f>103.239500000075*1000</f>
+        <v>103239.500000075</v>
       </c>
       <c r="P16" s="7">
-        <v>806.1372500299999</v>
+        <f>806.13725003*1000</f>
+        <v>806137.25003</v>
       </c>
       <c r="Q16" s="7">
-        <v>1757.0620000250001</v>
+        <f>1757.062000025*1000</f>
+        <v>1757062.0000250002</v>
       </c>
       <c r="R16" s="7">
-        <v>1767.67800004175</v>
+        <f>1767.67800004175*1000</f>
+        <v>1767678.00004175</v>
       </c>
       <c r="S16" s="7">
-        <v>89.457329909250006</v>
+        <f>89.45732990925*1000</f>
+        <v>89457.329909250009</v>
       </c>
       <c r="T16" s="7">
-        <v>489.23684808250005</v>
+        <f>489.2368480825*1000</f>
+        <v>489236.84808249999</v>
       </c>
       <c r="U16" s="7">
-        <v>1188.9838220500001</v>
+        <f>1188.98382205*1000</f>
+        <v>1188983.8220500001</v>
       </c>
       <c r="V16" s="7">
-        <v>898.76075001332515</v>
+        <f>898.760750013325*1000</f>
+        <v>898760.75001332501</v>
       </c>
       <c r="W16" s="5">
-        <v>13.782170090825</v>
+        <f>13.782170090825*1000</f>
+        <v>13782.170090825</v>
       </c>
       <c r="X16" s="7">
-        <v>316.90040194749997</v>
+        <f>316.9004019475*1000</f>
+        <v>316900.40194749995</v>
       </c>
       <c r="Y16" s="7">
-        <v>568.07817797500002</v>
+        <f>568.078177975*1000</f>
+        <v>568078.177975</v>
       </c>
       <c r="Z16" s="7">
-        <v>2232.7167502287252</v>
+        <f>2232.71675022873*1000</f>
+        <v>2232716.7502287296</v>
       </c>
       <c r="AA16" s="7">
-        <v>62.658749999975001</v>
+        <f>62.658749999975*1000</f>
+        <v>62658.749999975</v>
       </c>
       <c r="AB16" s="7">
-        <v>245.45950024125</v>
+        <f>245.45950024125*1000</f>
+        <v>245459.50024125</v>
       </c>
       <c r="AC16" s="7">
-        <v>1924.5984999875</v>
+        <f>1924.5984999875*1000</f>
+        <v>1924598.4999875</v>
       </c>
       <c r="AD16" s="7">
-        <v>1636.6812501432501</v>
+        <f>1636.68125014325*1000</f>
+        <v>1636681.25014325</v>
       </c>
       <c r="AE16" s="7">
-        <v>55.004801668249996</v>
+        <f>55.00480166825*1000</f>
+        <v>55004.801668250002</v>
       </c>
       <c r="AF16" s="7">
-        <v>156.94514982499999</v>
+        <f>156.945149825*1000</f>
+        <v>156945.149825</v>
       </c>
       <c r="AG16" s="7">
-        <v>1424.7312986499999</v>
+        <f>1424.73129865*1000</f>
+        <v>1424731.29865</v>
       </c>
       <c r="AH16" s="7">
-        <v>596.03550008547495</v>
+        <f>596.035500085475*1000</f>
+        <v>596035.50008547492</v>
       </c>
       <c r="AI16" s="5">
-        <v>7.6539483317249992</v>
+        <f>7.653948331725*1000</f>
+        <v>7653.9483317249997</v>
       </c>
       <c r="AJ16" s="7">
-        <v>88.514350416250011</v>
+        <f>88.51435041625*1000</f>
+        <v>88514.350416250003</v>
       </c>
       <c r="AK16" s="8">
-        <v>499.86720133749998</v>
+        <f>499.8672013375*1000</f>
+        <v>499867.20133749995</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
@@ -2033,112 +2414,148 @@
         <v>2016</v>
       </c>
       <c r="B17" s="6">
-        <v>4967.2687499653002</v>
+        <f>4967.2687499653*1000</f>
+        <v>4967268.7499652999</v>
       </c>
       <c r="C17" s="7">
-        <v>164.48300000005</v>
+        <f>164.48300000005*1000</f>
+        <v>164483.00000005</v>
       </c>
       <c r="D17" s="7">
-        <v>1044.9910000002501</v>
+        <f>1044.99100000025*1000</f>
+        <v>1044991.0000002501</v>
       </c>
       <c r="E17" s="7">
-        <v>3757.7947499649999</v>
+        <f>3757.794749965*1000</f>
+        <v>3757794.749965</v>
       </c>
       <c r="F17" s="7">
-        <v>3441.6659999664998</v>
+        <f>3441.6659999665*1000</f>
+        <v>3441665.9999664999</v>
       </c>
       <c r="G17" s="7">
-        <v>143.18996001149998</v>
+        <f>143.1899600115*1000</f>
+        <v>143189.96001149999</v>
       </c>
       <c r="H17" s="7">
-        <v>644.53116110500002</v>
+        <f>644.531161105*1000</f>
+        <v>644531.16110500006</v>
       </c>
       <c r="I17" s="7">
-        <v>2653.9448788499999</v>
+        <f>2653.94487885*1000</f>
+        <v>2653944.87885</v>
       </c>
       <c r="J17" s="7">
-        <v>1525.6027499987999</v>
+        <f>1525.6027499988*1000</f>
+        <v>1525602.7499988</v>
       </c>
       <c r="K17" s="7">
-        <v>21.293039988549999</v>
+        <f>21.29303998855*1000</f>
+        <v>21293.039988550001</v>
       </c>
       <c r="L17" s="7">
-        <v>400.45983889524996</v>
+        <f>400.45983889525*1000</f>
+        <v>400459.83889525</v>
       </c>
       <c r="M17" s="7">
-        <v>1103.849871115</v>
+        <f>1103.849871115*1000</f>
+        <v>1103849.871115</v>
       </c>
       <c r="N17" s="7">
-        <v>2694.5599999774995</v>
+        <f>2694.5599999775*1000</f>
+        <v>2694559.9999775002</v>
       </c>
       <c r="O17" s="7">
-        <v>101.426</v>
+        <f>101.426*1000</f>
+        <v>101426</v>
       </c>
       <c r="P17" s="7">
-        <v>801.75200000000007</v>
+        <f>801.752*1000</f>
+        <v>801752</v>
       </c>
       <c r="Q17" s="7">
-        <v>1791.3819999774998</v>
+        <f>1791.3819999775*1000</f>
+        <v>1791381.9999775002</v>
       </c>
       <c r="R17" s="7">
-        <v>1786.1634999780001</v>
+        <f>1786.163499978*1000</f>
+        <v>1786163.4999779998</v>
       </c>
       <c r="S17" s="7">
-        <v>87.748636622999996</v>
+        <f>87.748636623*1000</f>
+        <v>87748.636622999999</v>
       </c>
       <c r="T17" s="7">
-        <v>488.31548100499998</v>
+        <f>488.315481005*1000</f>
+        <v>488315.48100500001</v>
       </c>
       <c r="U17" s="7">
-        <v>1210.0993823499998</v>
+        <f>1210.09938235*1000</f>
+        <v>1210099.3823500001</v>
       </c>
       <c r="V17" s="7">
-        <v>908.39649999949995</v>
+        <f>908.3964999995*1000</f>
+        <v>908396.4999995</v>
       </c>
       <c r="W17" s="5">
-        <v>13.677363376999999</v>
+        <f>13.677363377*1000</f>
+        <v>13677.363377000001</v>
       </c>
       <c r="X17" s="7">
-        <v>313.43651899500003</v>
+        <f>313.436518995*1000</f>
+        <v>313436.51899499999</v>
       </c>
       <c r="Y17" s="7">
-        <v>581.28261762750003</v>
+        <f>581.2826176275*1000</f>
+        <v>581282.61762749997</v>
       </c>
       <c r="Z17" s="7">
-        <v>2272.7087499877998</v>
+        <f>2272.7087499878*1000</f>
+        <v>2272708.7499877997</v>
       </c>
       <c r="AA17" s="7">
-        <v>63.057000000049996</v>
+        <f>63.05700000005*1000</f>
+        <v>63057.00000005</v>
       </c>
       <c r="AB17" s="7">
-        <v>243.23900000025</v>
+        <f>243.23900000025*1000</f>
+        <v>243239.00000025</v>
       </c>
       <c r="AC17" s="7">
-        <v>1966.4127499874999</v>
+        <f>1966.4127499875*1000</f>
+        <v>1966412.7499875</v>
       </c>
       <c r="AD17" s="7">
-        <v>1655.5024999885002</v>
+        <f>1655.5024999885*1000</f>
+        <v>1655502.4999885</v>
       </c>
       <c r="AE17" s="7">
-        <v>55.441323388499995</v>
+        <f>55.4413233885*1000</f>
+        <v>55441.323388500001</v>
       </c>
       <c r="AF17" s="7">
-        <v>156.21568009999999</v>
+        <f>156.2156801*1000</f>
+        <v>156215.6801</v>
       </c>
       <c r="AG17" s="7">
-        <v>1443.8454965000001</v>
+        <f>1443.8454965*1000</f>
+        <v>1443845.4965000001</v>
       </c>
       <c r="AH17" s="7">
-        <v>617.20624999929998</v>
+        <f>617.2062499993*1000</f>
+        <v>617206.24999929999</v>
       </c>
       <c r="AI17" s="5">
-        <v>7.6156766115499988</v>
+        <f>7.61567661155*1000</f>
+        <v>7615.6766115499995</v>
       </c>
       <c r="AJ17" s="7">
-        <v>87.023319900250002</v>
+        <f>87.02331990025*1000</f>
+        <v>87023.319900250004</v>
       </c>
       <c r="AK17" s="8">
-        <v>522.56725348750001</v>
+        <f>522.5672534875*1000</f>
+        <v>522567.25348750001</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -2146,112 +2563,148 @@
         <v>2017</v>
       </c>
       <c r="B18" s="6">
-        <v>5012.5495000702249</v>
+        <f>5012.5495000702*1000</f>
+        <v>5012549.5000702003</v>
       </c>
       <c r="C18" s="7">
-        <v>155.26074999972499</v>
+        <f>155.260749999725*1000</f>
+        <v>155260.749999725</v>
       </c>
       <c r="D18" s="7">
-        <v>1045.4427500504999</v>
+        <f>1045.4427500505*1000</f>
+        <v>1045442.7500505</v>
       </c>
       <c r="E18" s="7">
-        <v>3811.8460000200002</v>
+        <f>3811.84600002*1000</f>
+        <v>3811846.0000199997</v>
       </c>
       <c r="F18" s="7">
-        <v>3453.7862500497499</v>
+        <f>3453.78625004975*1000</f>
+        <v>3453786.2500497499</v>
       </c>
       <c r="G18" s="7">
-        <v>134.16259538225</v>
+        <f>134.16259538225*1000</f>
+        <v>134162.59538225</v>
       </c>
       <c r="H18" s="7">
-        <v>636.75743291750007</v>
+        <f>636.7574329175*1000</f>
+        <v>636757.43291749991</v>
       </c>
       <c r="I18" s="7">
-        <v>2682.86622175</v>
+        <f>2682.86622175*1000</f>
+        <v>2682866.22175</v>
       </c>
       <c r="J18" s="7">
-        <v>1558.763250020475</v>
+        <f>1558.76325002047*1000</f>
+        <v>1558763.25002047</v>
       </c>
       <c r="K18" s="7">
-        <v>21.098154617475004</v>
+        <f>21.098154617475*1000</f>
+        <v>21098.154617475</v>
       </c>
       <c r="L18" s="7">
-        <v>408.68531713300001</v>
+        <f>408.685317133*1000</f>
+        <v>408685.317133</v>
       </c>
       <c r="M18" s="7">
-        <v>1128.9797782700002</v>
+        <f>1128.97977827*1000</f>
+        <v>1128979.7782699999</v>
       </c>
       <c r="N18" s="7">
-        <v>2731.4005000248999</v>
+        <f>2731.4005000249*1000</f>
+        <v>2731400.5000248998</v>
       </c>
       <c r="O18" s="7">
-        <v>96.484999999899998</v>
+        <f>96.4849999999*1000</f>
+        <v>96484.999999899999</v>
       </c>
       <c r="P18" s="7">
-        <v>805.06275000000005</v>
+        <f>805.06275*1000</f>
+        <v>805062.75</v>
       </c>
       <c r="Q18" s="7">
-        <v>1829.8527500250002</v>
+        <f>1829.852750025*1000</f>
+        <v>1829852.750025</v>
       </c>
       <c r="R18" s="7">
-        <v>1790.3665000225001</v>
+        <f>1790.3665000225*1000</f>
+        <v>1790366.5000225001</v>
       </c>
       <c r="S18" s="7">
-        <v>83.612032462499997</v>
+        <f>83.6120324625*1000</f>
+        <v>83612.032462499992</v>
       </c>
       <c r="T18" s="7">
-        <v>482.21894178499997</v>
+        <f>482.218941785*1000</f>
+        <v>482218.94178500003</v>
       </c>
       <c r="U18" s="7">
-        <v>1224.535525775</v>
+        <f>1224.535525775*1000</f>
+        <v>1224535.525775</v>
       </c>
       <c r="V18" s="7">
-        <v>941.03400000240003</v>
+        <f>941.0340000024*1000</f>
+        <v>941034.00000240002</v>
       </c>
       <c r="W18" s="5">
-        <v>12.872967537400001</v>
+        <f>12.8729675374*1000</f>
+        <v>12872.9675374</v>
       </c>
       <c r="X18" s="7">
-        <v>322.84380821499997</v>
+        <f>322.843808215*1000</f>
+        <v>322843.80821500003</v>
       </c>
       <c r="Y18" s="7">
-        <v>605.31722424999998</v>
+        <f>605.31722425*1000</f>
+        <v>605317.22424999997</v>
       </c>
       <c r="Z18" s="7">
-        <v>2281.149000045325</v>
+        <f>2281.14900004533*1000</f>
+        <v>2281149.0000453298</v>
       </c>
       <c r="AA18" s="7">
-        <v>58.775749999825003</v>
+        <f>58.775749999825*1000</f>
+        <v>58775.749999825006</v>
       </c>
       <c r="AB18" s="7">
-        <v>240.38000005050003</v>
+        <f>240.3800000505*1000</f>
+        <v>240380.00005050001</v>
       </c>
       <c r="AC18" s="7">
-        <v>1981.993249995</v>
+        <f>1981.993249995*1000</f>
+        <v>1981993.249995</v>
       </c>
       <c r="AD18" s="7">
-        <v>1663.4197500272501</v>
+        <f>1663.41975002725*1000</f>
+        <v>1663419.75002725</v>
       </c>
       <c r="AE18" s="7">
-        <v>50.55056291975</v>
+        <f>50.55056291975*1000</f>
+        <v>50550.562919750002</v>
       </c>
       <c r="AF18" s="7">
-        <v>154.53849113250001</v>
+        <f>154.5384911325*1000</f>
+        <v>154538.4911325</v>
       </c>
       <c r="AG18" s="7">
-        <v>1458.330695975</v>
+        <f>1458.330695975*1000</f>
+        <v>1458330.695975</v>
       </c>
       <c r="AH18" s="7">
-        <v>617.72925001807505</v>
+        <f>617.729250018075*1000</f>
+        <v>617729.25001807499</v>
       </c>
       <c r="AI18" s="5">
-        <v>8.2251870800749991</v>
+        <f>8.225187080075*1000</f>
+        <v>8225.1870800750003</v>
       </c>
       <c r="AJ18" s="7">
-        <v>85.841508918000002</v>
+        <f>85.841508918*1000</f>
+        <v>85841.508918000007</v>
       </c>
       <c r="AK18" s="8">
-        <v>523.66255402000002</v>
+        <f>523.66255402*1000</f>
+        <v>523662.55402000004</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
@@ -2259,112 +2712,148 @@
         <v>2018</v>
       </c>
       <c r="B19" s="6">
-        <v>5064.5477499991503</v>
+        <f>5064.54774999915*1000</f>
+        <v>5064547.7499991506</v>
       </c>
       <c r="C19" s="7">
-        <v>152.43725000015002</v>
+        <f>152.43725000015*1000</f>
+        <v>152437.25000015</v>
       </c>
       <c r="D19" s="7">
-        <v>1051.009749999</v>
+        <f>1051.009749999*1000</f>
+        <v>1051009.749999</v>
       </c>
       <c r="E19" s="7">
-        <v>3861.1007499999996</v>
+        <f>3861.10075*1000</f>
+        <v>3861100.75</v>
       </c>
       <c r="F19" s="7">
-        <v>3469.8797500007499</v>
+        <f>3469.87975000075*1000</f>
+        <v>3469879.7500007497</v>
       </c>
       <c r="G19" s="7">
-        <v>129.83105392825001</v>
+        <f>129.83105392825*1000</f>
+        <v>129831.05392824998</v>
       </c>
       <c r="H19" s="7">
-        <v>640.6441737975</v>
+        <f>640.6441737975*1000</f>
+        <v>640644.17379749997</v>
       </c>
       <c r="I19" s="7">
-        <v>2699.4045222750001</v>
+        <f>2699.404522275*1000</f>
+        <v>2699404.5222749999</v>
       </c>
       <c r="J19" s="7">
-        <v>1594.6679999984001</v>
+        <f>1594.6679999984*1000</f>
+        <v>1594667.9999984</v>
       </c>
       <c r="K19" s="7">
-        <v>22.606196071900001</v>
+        <f>22.6061960719*1000</f>
+        <v>22606.196071900002</v>
       </c>
       <c r="L19" s="7">
-        <v>410.36557620150006</v>
+        <f>410.3655762015*1000</f>
+        <v>410365.57620150002</v>
       </c>
       <c r="M19" s="7">
-        <v>1161.696227725</v>
+        <f>1161.696227725*1000</f>
+        <v>1161696.2277249999</v>
       </c>
       <c r="N19" s="7">
-        <v>2757.2464999899498</v>
+        <f>2757.24649998995*1000</f>
+        <v>2757246.4999899496</v>
       </c>
       <c r="O19" s="7">
-        <v>94.289999999949998</v>
+        <f>94.28999999995*1000</f>
+        <v>94289.99999995</v>
       </c>
       <c r="P19" s="7">
-        <v>807.38875000000007</v>
+        <f>807.38875*1000</f>
+        <v>807388.75</v>
       </c>
       <c r="Q19" s="7">
-        <v>1855.56774999</v>
+        <f>1855.56774999*1000</f>
+        <v>1855567.7499899999</v>
       </c>
       <c r="R19" s="7">
-        <v>1801.0067499935001</v>
+        <f>1801.0067499935*1000</f>
+        <v>1801006.7499935001</v>
       </c>
       <c r="S19" s="7">
-        <v>80.53221235849999</v>
+        <f>80.5322123585*1000</f>
+        <v>80532.212358500008</v>
       </c>
       <c r="T19" s="7">
-        <v>482.06680123499996</v>
+        <f>482.066801235*1000</f>
+        <v>482066.80123500002</v>
       </c>
       <c r="U19" s="7">
-        <v>1238.4077364</v>
+        <f>1238.4077364*1000</f>
+        <v>1238407.7364000001</v>
       </c>
       <c r="V19" s="7">
-        <v>956.23974999644997</v>
+        <f>956.23974999645*1000</f>
+        <v>956239.74999645003</v>
       </c>
       <c r="W19" s="5">
-        <v>13.757787641449999</v>
+        <f>13.75778764145*1000</f>
+        <v>13757.787641449999</v>
       </c>
       <c r="X19" s="7">
-        <v>325.321948765</v>
+        <f>325.321948765*1000</f>
+        <v>325321.94876499998</v>
       </c>
       <c r="Y19" s="7">
-        <v>617.16001358999995</v>
+        <f>617.16001359*1000</f>
+        <v>617160.01358999999</v>
       </c>
       <c r="Z19" s="7">
-        <v>2307.3012500092</v>
+        <f>2307.3012500092*1000</f>
+        <v>2307301.2500092001</v>
       </c>
       <c r="AA19" s="7">
-        <v>58.147250000200003</v>
+        <f>58.1472500002*1000</f>
+        <v>58147.250000200002</v>
       </c>
       <c r="AB19" s="7">
-        <v>243.62099999899999</v>
+        <f>243.620999999*1000</f>
+        <v>243620.99999899999</v>
       </c>
       <c r="AC19" s="7">
-        <v>2005.5330000099998</v>
+        <f>2005.53300001*1000</f>
+        <v>2005533.0000100001</v>
       </c>
       <c r="AD19" s="7">
-        <v>1668.8730000072501</v>
+        <f>1668.87300000725*1000</f>
+        <v>1668873.0000072501</v>
       </c>
       <c r="AE19" s="7">
-        <v>49.298841569749996</v>
+        <f>49.29884156975*1000</f>
+        <v>49298.841569750002</v>
       </c>
       <c r="AF19" s="7">
-        <v>158.57737256249999</v>
+        <f>158.5773725625*1000</f>
+        <v>158577.37256249998</v>
       </c>
       <c r="AG19" s="7">
-        <v>1460.9967858749999</v>
+        <f>1460.996785875*1000</f>
+        <v>1460996.7858749998</v>
       </c>
       <c r="AH19" s="7">
-        <v>638.42825000195</v>
+        <f>638.42825000195*1000</f>
+        <v>638428.25000194996</v>
       </c>
       <c r="AI19" s="5">
-        <v>8.8484084304500001</v>
+        <f>8.84840843045*1000</f>
+        <v>8848.4084304499993</v>
       </c>
       <c r="AJ19" s="7">
-        <v>85.043627436499975</v>
+        <f>85.0436274365*1000</f>
+        <v>85043.627436499999</v>
       </c>
       <c r="AK19" s="8">
-        <v>544.53621413500002</v>
+        <f>544.536214135*1000</f>
+        <v>544536.21413500002</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -2372,112 +2861,148 @@
         <v>2019</v>
       </c>
       <c r="B20" s="6">
-        <v>5100.6387507056752</v>
+        <f>5100.63875070568*1000</f>
+        <v>5100638.7507056799</v>
       </c>
       <c r="C20" s="7">
-        <v>132.68649999992499</v>
+        <f>132.686499999925*1000</f>
+        <v>132686.499999925</v>
       </c>
       <c r="D20" s="7">
-        <v>1057.7240006357499</v>
+        <f>1057.72400063575*1000</f>
+        <v>1057724.0006357499</v>
       </c>
       <c r="E20" s="7">
-        <v>3910.2282500700003</v>
+        <f>3910.22825007*1000</f>
+        <v>3910228.2500699996</v>
       </c>
       <c r="F20" s="7">
-        <v>3474.7420004380001</v>
+        <f>3474.742000438*1000</f>
+        <v>3474742.0004380001</v>
       </c>
       <c r="G20" s="7">
-        <v>112.83315535550001</v>
+        <f>112.8331553555*1000</f>
+        <v>112833.1553555</v>
       </c>
       <c r="H20" s="7">
-        <v>641.18342100749999</v>
+        <f>641.1834210075*1000</f>
+        <v>641183.42100750003</v>
       </c>
       <c r="I20" s="7">
-        <v>2720.7254240749999</v>
+        <f>2720.725424075*1000</f>
+        <v>2720725.424075</v>
       </c>
       <c r="J20" s="7">
-        <v>1625.8967502676749</v>
+        <f>1625.89675026767*1000</f>
+        <v>1625896.75026767</v>
       </c>
       <c r="K20" s="7">
-        <v>19.853344644425</v>
+        <f>19.853344644425*1000</f>
+        <v>19853.344644425</v>
       </c>
       <c r="L20" s="7">
-        <v>416.54057962824999</v>
+        <f>416.54057962825*1000</f>
+        <v>416540.57962824998</v>
       </c>
       <c r="M20" s="7">
-        <v>1189.502825995</v>
+        <f>1189.502825995*1000</f>
+        <v>1189502.8259950001</v>
       </c>
       <c r="N20" s="7">
-        <v>2769.4922506724997</v>
+        <f>2769.4922506725*1000</f>
+        <v>2769492.2506725001</v>
       </c>
       <c r="O20" s="7">
-        <v>86.167000000000002</v>
+        <f>86.167*1000</f>
+        <v>86167</v>
       </c>
       <c r="P20" s="7">
-        <v>811.77650060749988</v>
+        <f>811.7765006075*1000</f>
+        <v>811776.50060749997</v>
       </c>
       <c r="Q20" s="7">
-        <v>1871.5487500650001</v>
+        <f>1871.548750065*1000</f>
+        <v>1871548.750065</v>
       </c>
       <c r="R20" s="7">
-        <v>1798.9470004162501</v>
+        <f>1798.94700041625*1000</f>
+        <v>1798947.00041625</v>
       </c>
       <c r="S20" s="7">
-        <v>71.721693348749994</v>
+        <f>71.72169334875*1000</f>
+        <v>71721.693348749992</v>
       </c>
       <c r="T20" s="7">
-        <v>486.21885011749998</v>
+        <f>486.2188501175*1000</f>
+        <v>486218.8501175</v>
       </c>
       <c r="U20" s="7">
-        <v>1241.00645695</v>
+        <f>1241.00645695*1000</f>
+        <v>1241006.45695</v>
       </c>
       <c r="V20" s="7">
-        <v>970.54525025625003</v>
+        <f>970.54525025625*1000</f>
+        <v>970545.25025625003</v>
       </c>
       <c r="W20" s="5">
-        <v>14.44530665125</v>
+        <f>14.44530665125*1000</f>
+        <v>14445.306651250001</v>
       </c>
       <c r="X20" s="7">
-        <v>325.55765049000001</v>
+        <f>325.55765049*1000</f>
+        <v>325557.65049000003</v>
       </c>
       <c r="Y20" s="7">
-        <v>630.54229311500001</v>
+        <f>630.542293115*1000</f>
+        <v>630542.29311500001</v>
       </c>
       <c r="Z20" s="7">
-        <v>2331.1465000331755</v>
+        <f>2331.14650003318*1000</f>
+        <v>2331146.5000331802</v>
       </c>
       <c r="AA20" s="7">
-        <v>46.519499999925003</v>
+        <f>46.519499999925*1000</f>
+        <v>46519.499999924999</v>
       </c>
       <c r="AB20" s="7">
-        <v>245.94750002825</v>
+        <f>245.94750002825*1000</f>
+        <v>245947.50002825001</v>
       </c>
       <c r="AC20" s="7">
-        <v>2038.6795000049999</v>
+        <f>2038.679500005*1000</f>
+        <v>2038679.5000049998</v>
       </c>
       <c r="AD20" s="7">
-        <v>1675.7950000217502</v>
+        <f>1675.79500002175*1000</f>
+        <v>1675795.0000217499</v>
       </c>
       <c r="AE20" s="7">
-        <v>41.111462006750003</v>
+        <f>41.11146200675*1000</f>
+        <v>41111.46200675</v>
       </c>
       <c r="AF20" s="7">
-        <v>154.96457089</v>
+        <f>154.96457089*1000</f>
+        <v>154964.57089</v>
       </c>
       <c r="AG20" s="7">
-        <v>1479.7189671250001</v>
+        <f>1479.718967125*1000</f>
+        <v>1479718.967125</v>
       </c>
       <c r="AH20" s="7">
-        <v>655.35150001142506</v>
+        <f>655.351500011425*1000</f>
+        <v>655351.500011425</v>
       </c>
       <c r="AI20" s="5">
-        <v>5.4080379931750002</v>
+        <f>5.408037993175*1000</f>
+        <v>5408.0379931750003</v>
       </c>
       <c r="AJ20" s="7">
-        <v>90.98292913825</v>
+        <f>90.98292913825*1000</f>
+        <v>90982.929138249994</v>
       </c>
       <c r="AK20" s="8">
-        <v>558.96053287999996</v>
+        <f>558.96053288*1000</f>
+        <v>558960.53287999996</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -2485,112 +3010,148 @@
         <v>2020</v>
       </c>
       <c r="B21" s="6">
-        <v>5077.1152500657245</v>
+        <f>5077.11525006572*1000</f>
+        <v>5077115.2500657197</v>
       </c>
       <c r="C21" s="7">
-        <v>132.330249999975</v>
+        <f>132.330249999975*1000</f>
+        <v>132330.249999975</v>
       </c>
       <c r="D21" s="7">
-        <v>1050.3235000407499</v>
+        <f>1050.32350004075*1000</f>
+        <v>1050323.50004075</v>
       </c>
       <c r="E21" s="7">
-        <v>3894.4615000250001</v>
+        <f>3894.461500025*1000</f>
+        <v>3894461.500025</v>
       </c>
       <c r="F21" s="7">
-        <v>3439.7757500489997</v>
+        <f>3439.775750049*1000</f>
+        <v>3439775.7500490001</v>
       </c>
       <c r="G21" s="7">
-        <v>113.0893608865</v>
+        <f>113.0893608865*1000</f>
+        <v>113089.3608865</v>
       </c>
       <c r="H21" s="7">
-        <v>628.68002173750006</v>
+        <f>628.6800217375*1000</f>
+        <v>628680.02173750009</v>
       </c>
       <c r="I21" s="7">
-        <v>2698.0063674249996</v>
+        <f>2698.006367425*1000</f>
+        <v>2698006.3674249998</v>
       </c>
       <c r="J21" s="7">
-        <v>1637.3395000167252</v>
+        <f>1637.33950001673*1000</f>
+        <v>1637339.50001673</v>
       </c>
       <c r="K21" s="7">
-        <v>19.240889113474999</v>
+        <f>19.240889113475*1000</f>
+        <v>19240.889113475001</v>
       </c>
       <c r="L21" s="7">
-        <v>421.64347830324994</v>
+        <f>421.64347830325*1000</f>
+        <v>421643.47830324998</v>
       </c>
       <c r="M21" s="7">
-        <v>1196.4551326000001</v>
+        <f>1196.4551326*1000</f>
+        <v>1196455.1326000001</v>
       </c>
       <c r="N21" s="7">
-        <v>2758.9732499849997</v>
+        <f>2758.973249985*1000</f>
+        <v>2758973.2499850001</v>
       </c>
       <c r="O21" s="7">
-        <v>85.724999999999994</v>
+        <f>85.725*1000</f>
+        <v>85725</v>
       </c>
       <c r="P21" s="7">
-        <v>807.5809999999999</v>
+        <f>807.581*1000</f>
+        <v>807581</v>
       </c>
       <c r="Q21" s="7">
-        <v>1865.6672499850001</v>
+        <f>1865.667249985*1000</f>
+        <v>1865667.2499849999</v>
       </c>
       <c r="R21" s="7">
-        <v>1780.9052499852501</v>
+        <f>1780.90524998525*1000</f>
+        <v>1780905.2499852502</v>
       </c>
       <c r="S21" s="7">
-        <v>72.155695310249996</v>
+        <f>72.15569531025*1000</f>
+        <v>72155.695310249997</v>
       </c>
       <c r="T21" s="7">
-        <v>480.72226127499994</v>
+        <f>480.722261275*1000</f>
+        <v>480722.261275</v>
       </c>
       <c r="U21" s="7">
-        <v>1228.0272934</v>
+        <f>1228.0272934*1000</f>
+        <v>1228027.2933999998</v>
       </c>
       <c r="V21" s="7">
-        <v>978.06799999974999</v>
+        <f>978.06799999975*1000</f>
+        <v>978067.99999974994</v>
       </c>
       <c r="W21" s="5">
-        <v>13.56930468975</v>
+        <f>13.56930468975*1000</f>
+        <v>13569.304689750001</v>
       </c>
       <c r="X21" s="7">
-        <v>326.85873872499997</v>
+        <f>326.858738725*1000</f>
+        <v>326858.738725</v>
       </c>
       <c r="Y21" s="7">
-        <v>637.63995658499994</v>
+        <f>637.639956585*1000</f>
+        <v>637639.95658500004</v>
       </c>
       <c r="Z21" s="7">
-        <v>2318.1420000807248</v>
+        <f>2318.14200008072*1000</f>
+        <v>2318142.0000807201</v>
       </c>
       <c r="AA21" s="7">
-        <v>46.605249999975001</v>
+        <f>46.605249999975*1000</f>
+        <v>46605.249999975</v>
       </c>
       <c r="AB21" s="7">
-        <v>242.74250004075</v>
+        <f>242.74250004075*1000</f>
+        <v>242742.50004074999</v>
       </c>
       <c r="AC21" s="7">
-        <v>2028.79425004</v>
+        <f>2028.79425004*1000</f>
+        <v>2028794.2500399998</v>
       </c>
       <c r="AD21" s="7">
-        <v>1658.8705000637501</v>
+        <f>1658.87050006375*1000</f>
+        <v>1658870.50006375</v>
       </c>
       <c r="AE21" s="7">
-        <v>40.933665576250007</v>
+        <f>40.93366557625*1000</f>
+        <v>40933.665576250001</v>
       </c>
       <c r="AF21" s="7">
-        <v>147.9577604625</v>
+        <f>147.9577604625*1000</f>
+        <v>147957.76046250001</v>
       </c>
       <c r="AG21" s="7">
-        <v>1469.9790740249998</v>
+        <f>1469.979074025*1000</f>
+        <v>1469979.074025</v>
       </c>
       <c r="AH21" s="7">
-        <v>659.27150001697498</v>
+        <f>659.271500016975*1000</f>
+        <v>659271.50001697498</v>
       </c>
       <c r="AI21" s="5">
-        <v>5.6715844237249993</v>
+        <f>5.671584423725*1000</f>
+        <v>5671.5844237250003</v>
       </c>
       <c r="AJ21" s="7">
-        <v>94.784739578249997</v>
+        <f>94.78473957825*1000</f>
+        <v>94784.739578249995</v>
       </c>
       <c r="AK21" s="8">
-        <v>558.81517601500002</v>
+        <f>558.815176015*1000</f>
+        <v>558815.17601499998</v>
       </c>
     </row>
   </sheetData>
